--- a/Demo-opencart-application.xlsx
+++ b/Demo-opencart-application.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{214211F7-233C-482A-BFFF-EBE5DEB93406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3FF6247-7989-4573-9C29-C2CF11152C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{A4057C8F-F919-4D9B-BBED-0925F20D3951}"/>
   </bookViews>
   <sheets>
     <sheet name="Main-Page" sheetId="3" r:id="rId1"/>
     <sheet name="test-scenario" sheetId="1" r:id="rId2"/>
-    <sheet name="Login" sheetId="2" r:id="rId3"/>
-    <sheet name="Register" sheetId="4" r:id="rId4"/>
+    <sheet name="Register" sheetId="4" r:id="rId3"/>
+    <sheet name="Login" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="305">
   <si>
     <t>Project Name</t>
   </si>
@@ -793,12 +793,407 @@
   <si>
     <t>1.'Register Account' functionality should work in all the supported environments</t>
   </si>
+  <si>
+    <t>TC_LF_001</t>
+  </si>
+  <si>
+    <t>(TS_002) 
+Login Functionality</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL (https://demo.opencart.com) in any supported Browser
+2. Login credentials for an existing account are required
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option (Validate ER-1)
+3. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button (Validate ER-2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address - pavanoltraining@gmail.com
+Password -
+12345
+</t>
+  </si>
+  <si>
+    <t>1.User should be navigated to Login page
+2.User should get logged in and taken to the 'Account' page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address - raghuss4518@gmail.com
+Password -
+12345
+</t>
+  </si>
+  <si>
+    <t>TC_LF_002</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using invalid credentials (i.e. Invalid email address and Invalid Password)</t>
+  </si>
+  <si>
+    <t>Open the Application URL (https://demo.opencart.com) in any supported Browser</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option 
+3. Enter invalid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter invalid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Email Address - xyzabc123@gmail.com
+Password - 
+xyzabc123</t>
+  </si>
+  <si>
+    <t>1. Warning message with the text 'Warning: No match for E-Mail Address and/or Password.' should be displayed</t>
+  </si>
+  <si>
+    <t>TC_LF_003</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using invalid email address and valid Password</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option 
+3. Enter invalid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Email Address - xyzabc123@gmail.com
+Password - 
+12345</t>
+  </si>
+  <si>
+    <t>TC_LF_004</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using valid email address and invalid Password</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option 
+3. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter invalid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address - pavanoltraining@gmail.com
+Password -
+xyzabc123
+</t>
+  </si>
+  <si>
+    <t>TC_LF_005</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application without providing any credentials</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option 
+3. Don't enter anything into the 'E-Mail Address' field
+4. Don't enter anything into the 'Password' field
+5. Click on 'Login' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_LF_006</t>
+  </si>
+  <si>
+    <t>Validate 'Forgotten Password' link is available in the Login page and is working</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option (ER-1)
+3. Click on 'Forgotten Password' link (ER-2)</t>
+  </si>
+  <si>
+    <t>1. User should be taken to 'Login' page and 'Forgotten Password' link should be displayed in the page
+2. User should be taken to 'Forgotten Password' page</t>
+  </si>
+  <si>
+    <t>TC_LF_007</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using Keyboard keys (Tab and Enter)</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option 
+3. Press Tab keyboard key until the control comes to the E-Mail Address text field and enter the valid email address - &lt;Refer Test Data&gt;
+4. Press Tab keyboard key to move the control to Password text field and enter the valid password - &lt;Refer Test Data&gt;
+5. Press Tab keyboard key until the control comes 'Login' button and press 'Enter' key to submit (ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be able to log into the application</t>
+  </si>
+  <si>
+    <t>TC_LF_008</t>
+  </si>
+  <si>
+    <t>Validate E-Mail Address and Password text fields in the Login page have the place holder text</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option (ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper place holder text should be displayed inside the 'E-Mail Address' and 'Password' text fields</t>
+  </si>
+  <si>
+    <t>TC_LF_009</t>
+  </si>
+  <si>
+    <t>Validate Logging into the Application and browsing back using Browser back button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option
+3. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button 
+6. Click on Browser back button (ER-1)
+</t>
+  </si>
+  <si>
+    <t>1. User should not logged out</t>
+  </si>
+  <si>
+    <t>TC_LF_010</t>
+  </si>
+  <si>
+    <t>Validate Loggingout from the Application and browsing back using Browser back button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option
+3. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button 
+6. Click on 'My Account' Dropmenu and select 'Logout' option 
+7. Click on Browser back button (ER-1)
+</t>
+  </si>
+  <si>
+    <t>1. User should not get loggedin again</t>
+  </si>
+  <si>
+    <t>TC_LF_011</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using inactive credentials</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option
+3. Enter valid email address of an inactive account into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter valid password of an inactive account into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button (ER-1)</t>
+  </si>
+  <si>
+    <t>Test Data for this is pending</t>
+  </si>
+  <si>
+    <t>1. User should not be able to login</t>
+  </si>
+  <si>
+    <t>TC_LF_012</t>
+  </si>
+  <si>
+    <t>Validate the number of unsucessful login attemps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option 
+3. Enter invalid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter invalid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button 
+6. Repeat Step 5 for 4 more times (ER-1)
+</t>
+  </si>
+  <si>
+    <t>1. Warning message with the text ' Warning: Your account has exceeded allowed number of login attempts. Please try again in 1 hour.' should be displayed for the 5th time of clicking the 'Login' button with the same invalid credentials</t>
+  </si>
+  <si>
+    <t>TC_LF_013</t>
+  </si>
+  <si>
+    <t>Validate the text into the Password field is toggled to hide its visibility</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option 
+3. Enter any text into the 'Password' field (ER-1)</t>
+  </si>
+  <si>
+    <t>1.Text entered into the Password field should be toggled to hide its visibility (i.e. Instead of entered characters getting dispalyed, the Password field should show either * or . Symbols)</t>
+  </si>
+  <si>
+    <t>TC_LF_014</t>
+  </si>
+  <si>
+    <t>Validate the copying of the text entered into the Password field</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option 
+3. Enter any text into the 'Password' field
+4. Select the text entered into the 'Password' field, right click to select 'Copy' option (ER-1)
+5. Select the text entered into the 'Password' field and press (Ctrl+C) shorcut for copying (ER-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Copy option in the Right click menu should be disabled
+2. Password text should not be copied
+</t>
+  </si>
+  <si>
+    <t>TC_LF_015</t>
+  </si>
+  <si>
+    <t>Validate the Password is not visible in the Page Source</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option 
+3. Enter any text into the 'Password' field
+4. Inspect the Password text field (ER-1)
+5. Click on 'Login' button and inspect the Password text field (ER-1)</t>
+  </si>
+  <si>
+    <t>1. Password text should not be visible in the Page source</t>
+  </si>
+  <si>
+    <t>TC_LF_016</t>
+  </si>
+  <si>
+    <t>Validate Logging into the Application after changing the password</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option (Validate ER-1)
+3. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button 
+6. Click on 'Change your password' link
+7. Enter new password into the 'Password' and 'Password Confirm' fields
+8. Click on 'Continue' button
+9. Click on 'My Account' Dropmenu and select 'Logout' option
+10. Repeat steps 1 to 5 (ER-1)
+11. Enter new credentials given in Step 7 and click on 'Login' button (ER-2)</t>
+  </si>
+  <si>
+    <t>1. User should not be allowed to login
+2. User should be able to login</t>
+  </si>
+  <si>
+    <t>TC_LF_017</t>
+  </si>
+  <si>
+    <t>Validate Logging into the Application, closing the Browser without loggingout and opening the application in the Browser again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option (Validate ER-1)
+3. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button 
+6. Close the Browser
+7. Open the Browser and open the Application URL (ER-1)
+</t>
+  </si>
+  <si>
+    <t>1. Loggedin Sesion should be still maintained and User should not get logged out</t>
+  </si>
+  <si>
+    <t>TC_LF_018</t>
+  </si>
+  <si>
+    <t>Validate timeout of the Login Session</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option (Validate ER-1)
+3. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Login' button
+6. Wait for more than 30 minutes without performing anything on the Application
+7. Perform any action on the Application</t>
+  </si>
+  <si>
+    <t>1. User should get automatically logged out with a proper message stating your session got expired.</t>
+  </si>
+  <si>
+    <t>TC_LF_019</t>
+  </si>
+  <si>
+    <t>Validate user is able to navigate to different pages from Login page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu
+2. Click on 'Login' option 
+3. Click on 'Continue' button under 'New Customer' section (ER-1)
+4. Navigate back to Login page and click on different options like (Right Column options, Header options, Menu Options, Footer options and any other options) (ER-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be navigated to 'Register Account' page
+2. User should be navigated to the Appropriate pages
+</t>
+  </si>
+  <si>
+    <t>TC_LF_020</t>
+  </si>
+  <si>
+    <t>Validate the different ways of navigating to the Login page</t>
+  </si>
+  <si>
+    <t>Validate all the below ways of navigating to the Login page:
+Way 1 - Click on 'Login page' link in the 'Register Account' page (ER-1)
+Way 2 - Click on 'Login' option from the 'Right Column' options (ER-1)
+Way 3 - Select 'Login' option from the 'My Account' Dropmenu (ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to 'Login' page</t>
+  </si>
+  <si>
+    <t>TC_LF_021</t>
+  </si>
+  <si>
+    <t>Validate the breadcrumb, Page Heading, Page Title and Page URL of Login page</t>
+  </si>
+  <si>
+    <t>TC_LF_022</t>
+  </si>
+  <si>
+    <t>Validate the UI of the Login page</t>
+  </si>
+  <si>
+    <t>1. Login page UI should adhere to the UI checklist</t>
+  </si>
+  <si>
+    <t>TC_LF_023</t>
+  </si>
+  <si>
+    <t>Validate the Login page functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Login functionality should work correctly in all the supported environments</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,6 +1256,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -888,7 +1297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1068,11 +1477,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1101,18 +1540,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1132,9 +1559,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1143,6 +1567,31 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,68 +1914,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="27.7109375" style="15"/>
+    <col min="1" max="16384" width="27.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1549,59 +1998,59 @@
     <col min="3" max="3" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2162,986 +2611,1891 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A3F507-A78F-4602-BB87-D05B375BCC75}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EFF659-BE60-45C7-91DC-D3A28CAE7928}">
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="18"/>
+    <col min="2" max="2" width="24.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="87.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42" style="18" customWidth="1"/>
+    <col min="5" max="5" width="34" style="18" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="18"/>
+    <col min="7" max="7" width="52.85546875" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="16.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="17">
+        <v>12345</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EFF659-BE60-45C7-91DC-D3A28CAE7928}">
-  <dimension ref="A1:M48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A3F507-A78F-4602-BB87-D05B375BCC75}">
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="23"/>
-    <col min="2" max="2" width="24.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="87.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="42" style="23" customWidth="1"/>
-    <col min="5" max="5" width="34" style="23" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="23"/>
-    <col min="7" max="7" width="52.85546875" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="16.140625" style="23"/>
+    <col min="1" max="1" width="18.140625" style="18"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="18"/>
+    <col min="4" max="4" width="35.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="41" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="18"/>
+    <col min="7" max="7" width="32" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="18.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-    </row>
-    <row r="2" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+    </row>
+    <row r="2" spans="1:26" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="G6" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="G7" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="G8" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="G9" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="1:26" s="29" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="G14" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+    </row>
+    <row r="15" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="G15" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+    </row>
+    <row r="16" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="G16" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+    </row>
+    <row r="17" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+    </row>
+    <row r="18" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+    </row>
+    <row r="19" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+    </row>
+    <row r="20" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="G20" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+    </row>
+    <row r="21" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="G21" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+    </row>
+    <row r="22" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="G22" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+    </row>
+    <row r="23" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="G23" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+    </row>
+    <row r="24" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="22">
-        <v>12345</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
+      <c r="G24" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
